--- a/Target/SchemaBook.xlsx
+++ b/Target/SchemaBook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TestPySpark\Target\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataEngAutomation\Target\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCD7D6C-7895-424E-BB9E-084A57E4E19D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABB50F2-1977-4464-BCE8-BC4C0DF8ECDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -694,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02AD1ED-63B6-49F0-935B-894020059384}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -934,14 +934,14 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="33.6328125" style="3" customWidth="1"/>
     <col min="2" max="2" width="41.6328125" style="2" customWidth="1"/>
     <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -949,7 +949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -957,7 +957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -965,7 +965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -973,7 +973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -981,7 +981,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -989,7 +989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -997,7 +997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="13">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="13">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="13">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="13">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="13">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="13">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="13">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="13">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="13">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="13">
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="13">
+    <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="13">
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="13">
+    <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="13">
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1170,14 +1170,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="33.6328125" style="3" customWidth="1"/>
     <col min="2" max="2" width="41.6328125" style="2" customWidth="1"/>
     <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="13">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="13">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="13">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="13">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="13">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="13">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="13">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="13">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="13">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="13">
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="13">
+    <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="13">
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="13">
+    <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="13">
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>

--- a/Target/SchemaBook.xlsx
+++ b/Target/SchemaBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataEngAutomation\Target\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABB50F2-1977-4464-BCE8-BC4C0DF8ECDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A16BBB-EB68-4367-898C-9F33559ABEBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="31">
   <si>
     <t>Timestamp</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t xml:space="preserve"> integer (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> string </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> integer </t>
   </si>
 </sst>
 </file>
@@ -467,7 +473,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -482,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -490,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -514,7 +520,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -522,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -530,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -538,7 +544,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -546,7 +552,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -554,7 +560,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -562,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -570,7 +576,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -578,7 +584,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -586,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -594,7 +600,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -602,7 +608,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -610,7 +616,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -618,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -626,7 +632,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -634,7 +640,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -642,7 +648,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -650,7 +656,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -658,7 +664,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -666,7 +672,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -674,7 +680,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -682,7 +688,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
